--- a/biology/Botanique/Beurré_de_Naghin/Beurré_de_Naghin.xlsx
+++ b/biology/Botanique/Beurré_de_Naghin/Beurré_de_Naghin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Beurr%C3%A9_de_Naghin</t>
+          <t>Beurré_de_Naghin</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Beurré de Naghin désigne une variété de poire à dessert.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Beurr%C3%A9_de_Naghin</t>
+          <t>Beurré_de_Naghin</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La variété a été obtenue à partir des semis de G. Evrard, par Norbert Daras de Naghin, propriétaire à Tournai (Belgique)[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La variété a été obtenue à partir des semis de G. Evrard, par Norbert Daras de Naghin, propriétaire à Tournai (Belgique).
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Beurr%C3%A9_de_Naghin</t>
+          <t>Beurré_de_Naghin</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,50 +558,92 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Arbre
-L'arbre se révèle de bonne vigueur, il est assez fertile.
+          <t>Arbre</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'arbre se révèle de bonne vigueur, il est assez fertile.
 Les rameaux sont longs, assez forts, arqués, gris olive jaunâtre ; à lenticelles rondes, blanches, assez nombreuses.
 Les yeux sont moyens, coniques, écartés du rameau.
 La culture de cette variété se prête à toutes les formes naines ; ses pyramides sont peu garnies de branches ; si on le cultive sur franc, les fruits perdent de leur qualité. En sol argileux et froid, les fruits n'ont aucune qualité même si cette variété est cultivée sur cognassier.
-C'est un fruit d'amateur, de commerce de luxe et d'apparat[2].
-Fruit
-Le fruit est gros, turbiné, ventru, le plus souvent ovoïde, tronqué à ses deux bouts, mais surtout au sommet.
+C'est un fruit d'amateur, de commerce de luxe et d'apparat.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Beurré_de_Naghin</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Beurr%C3%A9_de_Naghin</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Fruit</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le fruit est gros, turbiné, ventru, le plus souvent ovoïde, tronqué à ses deux bouts, mais surtout au sommet.
 L'épiderme est d'un beau vert clair passant au jaune citrin doré, pointillé de roux à la maturité.
 Le pédicelle, moyen, renflé en une partie charnue à son point d'insertion au fruit, est implanté dans une cavité fortement bosselée.
 Œil moyen, fermé ou mi clos, inséré dans une cavité très large et assez profonde.
 Chair blanche, assez fine, fondante, juteuse, sucrée, acidulée, pas très parfumée.
-Le fruit  se révèle de bonne qualité[2].
+Le fruit  se révèle de bonne qualité.
 </t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Beurr%C3%A9_de_Naghin</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Beurré_de_Naghin</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Beurr%C3%A9_de_Naghin</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Maturité</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La maturité s'obtient en février-mars[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La maturité s'obtient en février-mars.
 </t>
         </is>
       </c>
